--- a/data/centering.xlsx
+++ b/data/centering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc152/Documents/GitHub/ES-202/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7F608B-726F-BB43-9AE6-BA2260D85A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8CB4CB-C258-734E-9DEB-F1C71D32D42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5980" windowWidth="27640" windowHeight="16680" xr2:uid="{06FEB433-1BAC-A24E-9C0C-B7B7421B7318}"/>
+    <workbookView xWindow="11980" yWindow="5980" windowWidth="27640" windowHeight="16680" xr2:uid="{58CF95F9-21DD-1845-A3FE-F0412E814BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -50,28 +50,22 @@
     <t>Name</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Reena</t>
-  </si>
-  <si>
-    <t>Ziyah</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>Madeline</t>
-  </si>
-  <si>
-    <t>Ilinca</t>
-  </si>
-  <si>
-    <t>Jillian</t>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Naomi</t>
   </si>
   <si>
     <t>No Class, Presidents' Day</t>
@@ -80,43 +74,16 @@
     <t>T</t>
   </si>
   <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Leila</t>
-  </si>
-  <si>
-    <t>Frida</t>
-  </si>
-  <si>
-    <t>Cassidy</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Emily</t>
+    <t>Greta</t>
+  </si>
+  <si>
+    <t>Ana</t>
   </si>
   <si>
     <t>No Class, Spring Break</t>
   </si>
   <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Sylva</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
     <t>No class-- Mariah in SC</t>
-  </si>
-  <si>
-    <t>Liz</t>
   </si>
   <si>
     <t>No Class, Patriots' Day</t>
@@ -175,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,6 +172,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -228,23 +206,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -585,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92DE5A-623F-474B-AFE4-862CC3BBCD0E}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35B3863-8333-5949-8E6D-CB657B08B537}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -601,7 +578,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -609,394 +586,372 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>46044</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>46048</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>46051</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>46055</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>46058</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>46062</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>46065</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
-        <v>46048</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>46051</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>46069</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>46070</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>46072</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>46055</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>46076</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>46079</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>46083</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>46086</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>46058</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>46090</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>46093</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>46062</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>46097</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>46100</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>46065</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>46104</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>46107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7">
-        <v>46069</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>46111</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>46114</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>46118</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="12">
+        <v>46121</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
-        <v>46070</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>46125</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>46128</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>46072</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="15">
+        <v>46132</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>46135</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>46076</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>46079</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>46083</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>46086</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>46090</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>46093</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7">
-        <v>46097</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7">
-        <v>46100</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
-        <v>46104</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>46107</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>46111</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4">
-        <v>46114</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4">
-        <v>46118</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11">
-        <v>46121</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>46125</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4">
-        <v>46128</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <v>14</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
-        <v>46132</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4">
-        <v>46135</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>46139</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4">
-        <v>46139</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
         <v>46142</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/centering.xlsx
+++ b/data/centering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc152/Documents/GitHub/ES-202/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8CB4CB-C258-734E-9DEB-F1C71D32D42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54786B0A-3A77-5B47-8D03-74D526335D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5980" windowWidth="27640" windowHeight="16680" xr2:uid="{58CF95F9-21DD-1845-A3FE-F0412E814BC3}"/>
+    <workbookView xWindow="2600" yWindow="1160" windowWidth="27640" windowHeight="16680" xr2:uid="{58CF95F9-21DD-1845-A3FE-F0412E814BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>Week</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Lydia</t>
-  </si>
-  <si>
-    <t>Sara</t>
   </si>
   <si>
     <t>Naomi</t>
@@ -210,25 +207,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +563,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D30"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -586,362 +583,353 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
         <v>46048</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>46051</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
         <v>46055</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
         <v>46058</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
         <v>46062</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>46065</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>46065</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>46069</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+    <row r="9" spans="1:4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>46070</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8">
-        <v>46069</v>
-      </c>
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>46072</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>46076</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>46079</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>46083</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>46086</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>46090</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>46093</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>46097</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>46100</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>46104</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>46107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
-        <v>46070</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>46072</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>46076</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>46111</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>46114</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>46079</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>46083</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>46118</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>46121</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>46086</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>46090</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>46093</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8">
-        <v>46097</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>46125</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>46128</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8">
-        <v>46100</v>
-      </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
-        <v>46104</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>46107</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5">
-        <v>46111</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <v>46114</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <v>46118</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="12">
-        <v>46121</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="B27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12">
+        <v>46132</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>13</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5">
-        <v>46125</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5">
-        <v>46128</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>14</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="15">
-        <v>46132</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
         <v>46135</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3">
+      <c r="A29" s="13">
         <v>15</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
         <v>46139</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4">
         <v>46142</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -952,6 +940,11 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
